--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-07T20:10:57+00:00</t>
+    <t>2023-10-29T13:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T13:58:21+00:00</t>
+    <t>2023-10-29T17:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T18:04:13+00:00</t>
+    <t>2023-10-29T19:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T19:43:50+00:00</t>
+    <t>2023-11-02T09:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-02T17:12:06+00:00</t>
+    <t>2024-01-09T10:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T10:02:55+00:00</t>
+    <t>2024-01-09T13:30:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T20:28:49+00:00</t>
+    <t>2024-03-24T09:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-24T09:50:04+00:00</t>
+    <t>2024-03-24T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-24T15:17:23+00:00</t>
+    <t>2024-03-25T22:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:02:55+00:00</t>
+    <t>2024-03-25T22:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:27:20+00:00</t>
+    <t>2024-03-26T10:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T10:34:23+00:00</t>
+    <t>2024-03-26T10:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T10:57:44+00:00</t>
+    <t>2024-03-29T21:30:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/v2/StructureDefinition-KMEHRMS.xlsx
+++ b/branches/v2/StructureDefinition-KMEHRMS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T21:30:10+00:00</t>
+    <t>2024-04-03T13:08:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
